--- a/INTyADMIN/Plaeación del proyecto/Administración de riesgos/PP_REP_v1_BD de Riesgos.xlsx
+++ b/INTyADMIN/Plaeación del proyecto/Administración de riesgos/PP_REP_v1_BD de Riesgos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Proyecto\v2 SSH\Aplicaci-n-para-control-de-cursos-de-capacitaci-n\INTyADMIN\Plaeación del proyecto\Administración de riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C9683-FA72-4E79-A1EA-92E7AB692130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07D49D3-3EEA-40D8-838C-859FF2CCA1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,11 @@
     <sheet name="Matriz_Probabilidad_Impacto" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="547">
   <si>
     <t>Versión</t>
   </si>
@@ -1482,33 +1474,18 @@
     <t>0,40</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
     <t>Muy Alta</t>
   </si>
   <si>
-    <t>0,90</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>0,70</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>0,50</t>
-  </si>
-  <si>
     <t>Baja</t>
   </si>
   <si>
-    <t>0,30</t>
-  </si>
-  <si>
     <t>Muy Baja</t>
   </si>
   <si>
@@ -1572,24 +1549,6 @@
     <t>Amenaza(RG_075)</t>
   </si>
   <si>
-    <t>0,08</t>
-  </si>
-  <si>
-    <t>0,12</t>
-  </si>
-  <si>
-    <t>0,09</t>
-  </si>
-  <si>
-    <t>0,15</t>
-  </si>
-  <si>
-    <t>0,25</t>
-  </si>
-  <si>
-    <t>0,11</t>
-  </si>
-  <si>
     <t>MMC_051</t>
   </si>
   <si>
@@ -1678,6 +1637,33 @@
   </si>
   <si>
     <t>MMC_111</t>
+  </si>
+  <si>
+    <t>RG_161</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>0,8</t>
   </si>
 </sst>
 </file>
@@ -2021,9 +2007,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2083,6 +2066,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2743,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2811,7 +2797,7 @@
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>400</v>
       </c>
       <c r="C13" s="9"/>
@@ -2832,10 +2818,10 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
@@ -2871,7 +2857,7 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="14">
@@ -2887,10 +2873,10 @@
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
@@ -2925,7 +2911,7 @@
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="14">
@@ -2941,12 +2927,12 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -2969,7 +2955,7 @@
       <c r="B30" s="14">
         <v>43998</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -2983,10 +2969,10 @@
       <c r="B31" s="14">
         <v>44012</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>399</v>
       </c>
     </row>
@@ -3012,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView topLeftCell="A65" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4882,7 +4868,9 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
+      <c r="A170" s="22" t="s">
+        <v>538</v>
+      </c>
       <c r="B170" s="26" t="s">
         <v>193</v>
       </c>
@@ -4906,8 +4894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A89"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5115,7 +5103,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="29" t="s">
         <v>379</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -5127,7 +5115,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>28</v>
@@ -5138,7 +5126,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>364</v>
@@ -5149,7 +5137,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>28</v>
@@ -5160,7 +5148,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>28</v>
@@ -5171,7 +5159,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>364</v>
@@ -5182,9 +5170,9 @@
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="B25" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="32" t="s">
@@ -5193,9 +5181,9 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>364</v>
       </c>
       <c r="C26" s="32" t="s">
@@ -5204,9 +5192,9 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="B27" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>364</v>
       </c>
       <c r="C27" s="32" t="s">
@@ -5215,9 +5203,9 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="B28" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>364</v>
       </c>
       <c r="C28" s="32" t="s">
@@ -5226,9 +5214,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="B29" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>364</v>
       </c>
       <c r="C29" s="32" t="s">
@@ -5239,10 +5227,10 @@
       <c r="A30" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>403</v>
       </c>
       <c r="D30" s="32" t="s">
@@ -5253,10 +5241,10 @@
       <c r="A31" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5264,10 +5252,10 @@
       <c r="A32" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5275,10 +5263,10 @@
       <c r="A33" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5286,65 +5274,65 @@
       <c r="A34" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="B35" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="B36" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="B37" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="B38" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="B39" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5352,10 +5340,10 @@
       <c r="A40" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5363,10 +5351,10 @@
       <c r="A41" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5374,10 +5362,10 @@
       <c r="A42" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5385,10 +5373,10 @@
       <c r="A43" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5396,164 +5384,164 @@
       <c r="A44" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="B45" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="B45" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="36" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="B46" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="B46" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="37" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="B47" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="B47" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="B48" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="B48" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="37" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="B49" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B49" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="37" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B50" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="B51" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="B51" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="37" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="B52" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="B52" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="37" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="B53" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="B53" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="B54" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="B55" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="B55" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="B56" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="37" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="B57" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="37" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="B58" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="37" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5561,10 +5549,10 @@
       <c r="A59" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="37" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5572,10 +5560,10 @@
       <c r="A60" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="37" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5583,10 +5571,10 @@
       <c r="A61" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="37" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5594,10 +5582,10 @@
       <c r="A62" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5605,10 +5593,10 @@
       <c r="A63" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="37" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5616,10 +5604,10 @@
       <c r="A64" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="37" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5627,10 +5615,10 @@
       <c r="A65" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="37" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5638,10 +5626,10 @@
       <c r="A66" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="37" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5649,10 +5637,10 @@
       <c r="A67" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="37" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5660,10 +5648,10 @@
       <c r="A68" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="37" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5671,10 +5659,10 @@
       <c r="A69" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="37" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5682,10 +5670,10 @@
       <c r="A70" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="37" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5693,10 +5681,10 @@
       <c r="A71" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="37" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5704,10 +5692,10 @@
       <c r="A72" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="37" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5715,10 +5703,10 @@
       <c r="A73" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="37" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5726,10 +5714,10 @@
       <c r="A74" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="37" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5737,10 +5725,10 @@
       <c r="A75" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="37" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5748,10 +5736,10 @@
       <c r="A76" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="37" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5759,10 +5747,10 @@
       <c r="A77" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="37" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5770,10 +5758,10 @@
       <c r="A78" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="37" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5781,21 +5769,21 @@
       <c r="A79" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="B80" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="37" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5803,10 +5791,10 @@
       <c r="A81" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="37" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5814,10 +5802,10 @@
       <c r="A82" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="37" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5825,10 +5813,10 @@
       <c r="A83" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="37" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5836,10 +5824,10 @@
       <c r="A84" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="37" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5847,10 +5835,10 @@
       <c r="A85" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="37" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5858,10 +5846,10 @@
       <c r="A86" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="37" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5869,10 +5857,10 @@
       <c r="A87" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="37" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5880,10 +5868,10 @@
       <c r="A88" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="37" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5891,10 +5879,10 @@
       <c r="A89" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="37" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5925,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D351A-E2DF-428B-A1AA-FF4AC66A8E66}">
   <dimension ref="A3:G208"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5947,2467 +5935,2467 @@
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="50" t="s">
+      <c r="B61" s="54"/>
+      <c r="C61" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D61" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E61" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F61" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G61" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="41" t="s">
+      <c r="B63" s="48"/>
+      <c r="C63" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D63" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="G67" s="42"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+    </row>
+    <row r="70" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" s="54"/>
+      <c r="C71" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+    </row>
+    <row r="73" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B73" s="48"/>
+      <c r="C73" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+    </row>
+    <row r="75" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+    </row>
+    <row r="76" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+    </row>
+    <row r="77" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+    </row>
+    <row r="80" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B81" s="54"/>
+      <c r="C81" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+    </row>
+    <row r="83" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B83" s="48"/>
+      <c r="C83" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F83" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G83" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+    </row>
+    <row r="86" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+    </row>
+    <row r="87" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+    </row>
+    <row r="88" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+    </row>
+    <row r="90" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B91" s="54"/>
+      <c r="C91" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E91" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F91" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G91" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+    </row>
+    <row r="93" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B93" s="48"/>
+      <c r="C93" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+    </row>
+    <row r="95" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+    </row>
+    <row r="96" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="G96" s="42"/>
+    </row>
+    <row r="97" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+    </row>
+    <row r="98" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+    </row>
+    <row r="100" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="43" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B101" s="54"/>
+      <c r="C101" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F101" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G101" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="51"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+    </row>
+    <row r="103" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B103" s="48"/>
+      <c r="C103" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F103" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G103" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+    </row>
+    <row r="105" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+    </row>
+    <row r="106" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+    </row>
+    <row r="108" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+    </row>
+    <row r="110" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="43" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B111" s="54"/>
+      <c r="C111" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D111" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F111" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G111" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="51"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+    </row>
+    <row r="113" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B113" s="48"/>
+      <c r="C113" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E113" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F113" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G113" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+    </row>
+    <row r="115" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+    </row>
+    <row r="116" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+    </row>
+    <row r="117" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+    </row>
+    <row r="120" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" s="54"/>
+      <c r="C121" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D121" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E121" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F121" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G121" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="51"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+    </row>
+    <row r="123" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B123" s="48"/>
+      <c r="C123" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E123" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F123" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G123" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+    </row>
+    <row r="125" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C125" s="42"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
+    </row>
+    <row r="126" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G13" s="41" t="s">
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+    </row>
+    <row r="127" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
+    </row>
+    <row r="128" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="42"/>
+    </row>
+    <row r="130" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B131" s="54"/>
+      <c r="C131" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D131" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="E131" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F131" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G131" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="51"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+    </row>
+    <row r="133" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B133" s="48"/>
+      <c r="C133" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="D133" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E133" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F133" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G133" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="B134" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
+    </row>
+    <row r="135" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B135" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+    </row>
+    <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="B136" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+    </row>
+    <row r="137" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B137" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43" t="s">
-        <v>516</v>
-      </c>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="B138" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C138" s="42"/>
+      <c r="D138" s="42"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
+      <c r="G138" s="42"/>
+    </row>
+    <row r="140" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="50" t="s">
+      <c r="B141" s="54"/>
+      <c r="C141" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D141" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E141" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F141" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G141" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="142" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="51"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+    </row>
+    <row r="143" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="41" t="s">
+      <c r="B143" s="48"/>
+      <c r="C143" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G23" s="41" t="s">
+      <c r="D143" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E143" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F143" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G143" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="B144" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42"/>
+    </row>
+    <row r="145" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B145" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="42"/>
+    </row>
+    <row r="146" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="B146" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C146" s="42"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="42"/>
+      <c r="F146" s="42"/>
+      <c r="G146" s="42"/>
+    </row>
+    <row r="147" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B147" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="G147" s="42"/>
+    </row>
+    <row r="148" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43" t="s">
-        <v>515</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="B148" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C148" s="42"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+    </row>
+    <row r="150" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="50" t="s">
+      <c r="B151" s="54"/>
+      <c r="C151" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D151" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E151" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F151" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G151" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+    <row r="152" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="51"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="50"/>
+    </row>
+    <row r="153" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="41" t="s">
+      <c r="B153" s="48"/>
+      <c r="C153" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G33" s="41" t="s">
+      <c r="D153" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E153" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F153" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G153" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="B154" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
+      <c r="G154" s="42"/>
+    </row>
+    <row r="155" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B155" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C155" s="42"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42"/>
+    </row>
+    <row r="156" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="B156" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C156" s="42"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42"/>
+    </row>
+    <row r="157" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B157" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C157" s="42"/>
+      <c r="D157" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
+      <c r="G157" s="42"/>
+    </row>
+    <row r="158" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="B158" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C158" s="42"/>
+      <c r="D158" s="42"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
+      <c r="G158" s="42"/>
+    </row>
+    <row r="160" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="50" t="s">
+      <c r="B161" s="54"/>
+      <c r="C161" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D161" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E161" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F161" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G161" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+    <row r="162" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="51"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
+    </row>
+    <row r="163" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="41" t="s">
+      <c r="B163" s="48"/>
+      <c r="C163" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G43" s="41" t="s">
+      <c r="D163" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E163" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F163" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G163" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="B164" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="42"/>
+    </row>
+    <row r="165" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B165" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+    </row>
+    <row r="166" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="B166" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+    </row>
+    <row r="167" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B167" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
+    </row>
+    <row r="168" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="G47" s="43"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="B168" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
+      <c r="G168" s="42"/>
+    </row>
+    <row r="170" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="50" t="s">
+      <c r="B171" s="54"/>
+      <c r="C171" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D171" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E171" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F171" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G171" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+    <row r="172" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="51"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+    </row>
+    <row r="173" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="41" t="s">
+      <c r="B173" s="48"/>
+      <c r="C173" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D53" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G53" s="41" t="s">
+      <c r="D173" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E173" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F173" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G173" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="B174" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
+      <c r="G174" s="42"/>
+    </row>
+    <row r="175" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B175" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+    </row>
+    <row r="176" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
+      <c r="B176" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C176" s="42"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+    </row>
+    <row r="177" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B177" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C177" s="42"/>
+      <c r="D177" s="42"/>
+      <c r="E177" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="F177" s="42"/>
+      <c r="G177" s="42"/>
+    </row>
+    <row r="178" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="s">
+      <c r="B178" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C178" s="42"/>
+      <c r="D178" s="42"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
+      <c r="G178" s="42"/>
+    </row>
+    <row r="180" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="50" t="s">
+      <c r="B181" s="54"/>
+      <c r="C181" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D181" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E181" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F181" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G61" s="50" t="s">
+      <c r="G181" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+    <row r="182" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="51"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
+    </row>
+    <row r="183" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="41" t="s">
+      <c r="B183" s="48"/>
+      <c r="C183" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D63" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G63" s="41" t="s">
+      <c r="D183" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E183" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F183" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G183" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
+      <c r="B184" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C184" s="42"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+    </row>
+    <row r="185" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B185" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+    </row>
+    <row r="186" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
+      <c r="B186" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C186" s="42"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
+      <c r="G186" s="42"/>
+    </row>
+    <row r="187" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B187" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C187" s="42"/>
+      <c r="D187" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="42"/>
+    </row>
+    <row r="188" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B66" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B67" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="G67" s="43"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-    </row>
-    <row r="70" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="54" t="s">
+      <c r="B188" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C188" s="42"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="42"/>
+      <c r="G188" s="42"/>
+    </row>
+    <row r="190" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="50" t="s">
+      <c r="B191" s="54"/>
+      <c r="C191" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D191" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E71" s="50" t="s">
+      <c r="E191" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F71" s="50" t="s">
+      <c r="F191" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G71" s="50" t="s">
+      <c r="G191" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-    </row>
-    <row r="73" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+    <row r="192" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="51"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="50"/>
+    </row>
+    <row r="193" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="41" t="s">
+      <c r="B193" s="48"/>
+      <c r="C193" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D73" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E73" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G73" s="41" t="s">
+      <c r="D193" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E193" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F193" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G193" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
+      <c r="B194" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C194" s="42"/>
+      <c r="D194" s="42"/>
+      <c r="E194" s="42"/>
+      <c r="F194" s="42"/>
+      <c r="G194" s="42"/>
+    </row>
+    <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B195" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C195" s="42"/>
+      <c r="D195" s="42"/>
+      <c r="E195" s="42"/>
+      <c r="F195" s="42"/>
+      <c r="G195" s="42"/>
+    </row>
+    <row r="196" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-    </row>
-    <row r="75" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
+      <c r="B196" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C196" s="42"/>
+      <c r="D196" s="42"/>
+      <c r="E196" s="42"/>
+      <c r="F196" s="42"/>
+      <c r="G196" s="42"/>
+    </row>
+    <row r="197" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B197" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C197" s="42"/>
+      <c r="D197" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
+      <c r="G197" s="42"/>
+    </row>
+    <row r="198" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-    </row>
-    <row r="76" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-    </row>
-    <row r="77" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-    </row>
-    <row r="80" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="54" t="s">
+      <c r="B198" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
+      <c r="G198" s="42"/>
+    </row>
+    <row r="200" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="50" t="s">
+      <c r="B201" s="54"/>
+      <c r="C201" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D201" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E201" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F81" s="50" t="s">
+      <c r="F201" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="50" t="s">
+      <c r="G201" s="49" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-    </row>
-    <row r="83" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
+    <row r="202" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="51"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
+    </row>
+    <row r="203" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="41" t="s">
+      <c r="B203" s="48"/>
+      <c r="C203" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="D83" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E83" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F83" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G83" s="41" t="s">
+      <c r="D203" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E203" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="F203" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G203" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
+      <c r="B204" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C204" s="42"/>
+      <c r="D204" s="42"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
+      <c r="G204" s="42"/>
+    </row>
+    <row r="205" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B205" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C205" s="42"/>
+      <c r="D205" s="42"/>
+      <c r="E205" s="42"/>
+      <c r="F205" s="42"/>
+      <c r="G205" s="42"/>
+    </row>
+    <row r="206" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="B206" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C206" s="42"/>
+      <c r="D206" s="42"/>
+      <c r="E206" s="42"/>
+      <c r="F206" s="42"/>
+      <c r="G206" s="42"/>
+    </row>
+    <row r="207" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B207" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-    </row>
-    <row r="86" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B86" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-    </row>
-    <row r="87" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B87" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-    </row>
-    <row r="88" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B88" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-    </row>
-    <row r="90" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D91" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E91" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G91" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="51"/>
-    </row>
-    <row r="93" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E93" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G93" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-    </row>
-    <row r="95" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-    </row>
-    <row r="96" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B96" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="G96" s="43"/>
-    </row>
-    <row r="97" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B97" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-    </row>
-    <row r="98" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B98" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-    </row>
-    <row r="100" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="44" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D101" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E101" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F101" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G101" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-    </row>
-    <row r="103" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B103" s="49"/>
-      <c r="C103" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D103" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E103" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F103" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G103" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B104" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-    </row>
-    <row r="105" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B105" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-    </row>
-    <row r="106" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B106" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43" t="s">
-        <v>516</v>
-      </c>
-      <c r="G106" s="43"/>
-    </row>
-    <row r="107" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B107" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-    </row>
-    <row r="108" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B108" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-    </row>
-    <row r="110" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B111" s="55"/>
-      <c r="C111" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D111" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E111" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F111" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G111" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-    </row>
-    <row r="113" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B113" s="49"/>
-      <c r="C113" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E113" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F113" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G113" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B114" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-    </row>
-    <row r="115" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B115" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-    </row>
-    <row r="116" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B116" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-    </row>
-    <row r="117" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B117" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="G117" s="43"/>
-    </row>
-    <row r="118" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B118" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-    </row>
-    <row r="120" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="44" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D121" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E121" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F121" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G121" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-    </row>
-    <row r="123" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B123" s="49"/>
-      <c r="C123" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D123" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E123" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F123" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G123" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B124" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-    </row>
-    <row r="125" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B125" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-    </row>
-    <row r="126" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B126" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43" t="s">
-        <v>515</v>
-      </c>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-    </row>
-    <row r="127" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B127" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="43"/>
-    </row>
-    <row r="128" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B128" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-    </row>
-    <row r="130" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="44" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B131" s="55"/>
-      <c r="C131" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D131" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E131" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F131" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G131" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-    </row>
-    <row r="133" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B133" s="49"/>
-      <c r="C133" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D133" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E133" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F133" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G133" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B134" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="43"/>
-    </row>
-    <row r="135" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B135" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-    </row>
-    <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B136" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43"/>
-    </row>
-    <row r="137" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B137" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B138" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43"/>
-      <c r="G138" s="43"/>
-    </row>
-    <row r="140" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="44" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B141" s="55"/>
-      <c r="C141" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D141" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E141" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F141" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G141" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="52"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
-      <c r="G142" s="51"/>
-    </row>
-    <row r="143" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B143" s="49"/>
-      <c r="C143" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D143" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E143" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F143" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G143" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B144" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C144" s="43"/>
-      <c r="D144" s="43"/>
-      <c r="E144" s="43"/>
-      <c r="F144" s="43"/>
-      <c r="G144" s="43"/>
-    </row>
-    <row r="145" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B145" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C145" s="43"/>
-      <c r="D145" s="43"/>
-      <c r="E145" s="43"/>
-      <c r="F145" s="43"/>
-      <c r="G145" s="43"/>
-    </row>
-    <row r="146" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B146" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C146" s="43"/>
-      <c r="D146" s="43"/>
-      <c r="E146" s="43"/>
-      <c r="F146" s="43"/>
-      <c r="G146" s="43"/>
-    </row>
-    <row r="147" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B147" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C147" s="43"/>
-      <c r="D147" s="43"/>
-      <c r="E147" s="43"/>
-      <c r="F147" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="G147" s="43"/>
-    </row>
-    <row r="148" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B148" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C148" s="43"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="43"/>
-      <c r="F148" s="43"/>
-      <c r="G148" s="43"/>
-    </row>
-    <row r="150" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="44" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D151" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E151" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F151" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G151" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="52"/>
-      <c r="B152" s="53"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
-      <c r="F152" s="51"/>
-      <c r="G152" s="51"/>
-    </row>
-    <row r="153" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D153" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E153" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F153" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G153" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B154" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C154" s="43"/>
-      <c r="D154" s="43"/>
-      <c r="E154" s="43"/>
-      <c r="F154" s="43"/>
-      <c r="G154" s="43"/>
-    </row>
-    <row r="155" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B155" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C155" s="43"/>
-      <c r="D155" s="43"/>
-      <c r="E155" s="43"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
-    </row>
-    <row r="156" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B156" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C156" s="43"/>
-      <c r="D156" s="43"/>
-      <c r="E156" s="43"/>
-      <c r="F156" s="43"/>
-      <c r="G156" s="43"/>
-    </row>
-    <row r="157" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B157" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C157" s="43"/>
-      <c r="D157" s="43" t="s">
-        <v>518</v>
-      </c>
-      <c r="E157" s="43"/>
-      <c r="F157" s="43"/>
-      <c r="G157" s="43"/>
-    </row>
-    <row r="158" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B158" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C158" s="43"/>
-      <c r="D158" s="43"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="43"/>
-    </row>
-    <row r="160" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="44" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B161" s="55"/>
-      <c r="C161" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D161" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E161" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F161" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G161" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="53"/>
-      <c r="C162" s="51"/>
-      <c r="D162" s="51"/>
-      <c r="E162" s="51"/>
-      <c r="F162" s="51"/>
-      <c r="G162" s="51"/>
-    </row>
-    <row r="163" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B163" s="49"/>
-      <c r="C163" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D163" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E163" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F163" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G163" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B164" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C164" s="43"/>
-      <c r="D164" s="43"/>
-      <c r="E164" s="43"/>
-      <c r="F164" s="43"/>
-      <c r="G164" s="43"/>
-    </row>
-    <row r="165" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B165" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C165" s="43"/>
-      <c r="D165" s="43"/>
-      <c r="E165" s="43" t="s">
-        <v>515</v>
-      </c>
-      <c r="F165" s="43"/>
-      <c r="G165" s="43"/>
-    </row>
-    <row r="166" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B166" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C166" s="43"/>
-      <c r="D166" s="43"/>
-      <c r="E166" s="43"/>
-      <c r="F166" s="43"/>
-      <c r="G166" s="43"/>
-    </row>
-    <row r="167" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B167" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C167" s="43"/>
-      <c r="D167" s="43"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="43"/>
-      <c r="G167" s="43"/>
-    </row>
-    <row r="168" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B168" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="43"/>
-      <c r="G168" s="43"/>
-    </row>
-    <row r="170" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B171" s="55"/>
-      <c r="C171" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D171" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E171" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F171" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G171" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="52"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="51"/>
-      <c r="D172" s="51"/>
-      <c r="E172" s="51"/>
-      <c r="F172" s="51"/>
-      <c r="G172" s="51"/>
-    </row>
-    <row r="173" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B173" s="49"/>
-      <c r="C173" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D173" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E173" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F173" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G173" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B174" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C174" s="43"/>
-      <c r="D174" s="43"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="43"/>
-      <c r="G174" s="43"/>
-    </row>
-    <row r="175" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B175" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C175" s="43"/>
-      <c r="D175" s="43"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="43"/>
-      <c r="G175" s="43"/>
-    </row>
-    <row r="176" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B176" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C176" s="43"/>
-      <c r="D176" s="43"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="43"/>
-    </row>
-    <row r="177" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B177" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C177" s="43"/>
-      <c r="D177" s="43"/>
-      <c r="E177" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="F177" s="43"/>
-      <c r="G177" s="43"/>
-    </row>
-    <row r="178" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B178" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C178" s="43"/>
-      <c r="D178" s="43"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="43"/>
-      <c r="G178" s="43"/>
-    </row>
-    <row r="180" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="44" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B181" s="55"/>
-      <c r="C181" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D181" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E181" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F181" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G181" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="52"/>
-      <c r="B182" s="53"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="51"/>
-      <c r="E182" s="51"/>
-      <c r="F182" s="51"/>
-      <c r="G182" s="51"/>
-    </row>
-    <row r="183" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B183" s="49"/>
-      <c r="C183" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D183" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E183" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F183" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G183" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B184" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C184" s="43"/>
-      <c r="D184" s="43"/>
-      <c r="E184" s="43"/>
-      <c r="F184" s="43"/>
-      <c r="G184" s="43"/>
-    </row>
-    <row r="185" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B185" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C185" s="43"/>
-      <c r="D185" s="43"/>
-      <c r="E185" s="43"/>
-      <c r="F185" s="43"/>
-      <c r="G185" s="43"/>
-    </row>
-    <row r="186" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B186" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C186" s="43"/>
-      <c r="D186" s="43"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="43"/>
-      <c r="G186" s="43"/>
-    </row>
-    <row r="187" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B187" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C187" s="43"/>
-      <c r="D187" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="E187" s="43"/>
-      <c r="F187" s="43"/>
-      <c r="G187" s="43"/>
-    </row>
-    <row r="188" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B188" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C188" s="43"/>
-      <c r="D188" s="43"/>
-      <c r="E188" s="43"/>
-      <c r="F188" s="43"/>
-      <c r="G188" s="43"/>
-    </row>
-    <row r="190" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="44" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B191" s="55"/>
-      <c r="C191" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D191" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E191" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F191" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G191" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="52"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="51"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-    </row>
-    <row r="193" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B193" s="49"/>
-      <c r="C193" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D193" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E193" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F193" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G193" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B194" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C194" s="43"/>
-      <c r="D194" s="43"/>
-      <c r="E194" s="43"/>
-      <c r="F194" s="43"/>
-      <c r="G194" s="43"/>
-    </row>
-    <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B195" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C195" s="43"/>
-      <c r="D195" s="43"/>
-      <c r="E195" s="43"/>
-      <c r="F195" s="43"/>
-      <c r="G195" s="43"/>
-    </row>
-    <row r="196" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B196" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C196" s="43"/>
-      <c r="D196" s="43"/>
-      <c r="E196" s="43"/>
-      <c r="F196" s="43"/>
-      <c r="G196" s="43"/>
-    </row>
-    <row r="197" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B197" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C197" s="43"/>
-      <c r="D197" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="E197" s="43"/>
-      <c r="F197" s="43"/>
-      <c r="G197" s="43"/>
-    </row>
-    <row r="198" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B198" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C198" s="43"/>
-      <c r="D198" s="43"/>
-      <c r="E198" s="43"/>
-      <c r="F198" s="43"/>
-      <c r="G198" s="43"/>
-    </row>
-    <row r="200" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="44" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="B201" s="55"/>
-      <c r="C201" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D201" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E201" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F201" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="G201" s="50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="52"/>
-      <c r="B202" s="53"/>
-      <c r="C202" s="51"/>
-      <c r="D202" s="51"/>
-      <c r="E202" s="51"/>
-      <c r="F202" s="51"/>
-      <c r="G202" s="51"/>
-    </row>
-    <row r="203" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B203" s="49"/>
-      <c r="C203" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D203" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="E203" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F203" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G203" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B204" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="C204" s="43"/>
-      <c r="D204" s="43"/>
-      <c r="E204" s="43"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="43"/>
-    </row>
-    <row r="205" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B205" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C205" s="43"/>
-      <c r="D205" s="43"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="43"/>
-    </row>
-    <row r="206" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B206" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C206" s="43"/>
-      <c r="D206" s="43"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="43"/>
-    </row>
-    <row r="207" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="B207" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C207" s="43"/>
-      <c r="D207" s="43"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="43"/>
-      <c r="G207" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="B208" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="C208" s="43"/>
-      <c r="D208" s="43"/>
-      <c r="E208" s="43"/>
-      <c r="F208" s="43"/>
-      <c r="G208" s="43"/>
+      <c r="B208" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C208" s="42"/>
+      <c r="D208" s="42"/>
+      <c r="E208" s="42"/>
+      <c r="F208" s="42"/>
+      <c r="G208" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="160">

--- a/INTyADMIN/Plaeación del proyecto/Administración de riesgos/PP_REP_v1_BD de Riesgos.xlsx
+++ b/INTyADMIN/Plaeación del proyecto/Administración de riesgos/PP_REP_v1_BD de Riesgos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Aplicaci-n-para-control-de-cursos-de-capacitaci-n\INTyADMIN\Plaeación del proyecto\Administración de riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07D49D3-3EEA-40D8-838C-859FF2CCA1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44075A24-1E13-4486-810A-E2678E8675D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="548">
   <si>
     <t>Versión</t>
   </si>
@@ -1664,6 +1664,9 @@
   </si>
   <si>
     <t>0,8</t>
+  </si>
+  <si>
+    <t>Se actualizo el formato en la sección de matriz de probabilidad, ya que los datos eran erróneos, además de su operación y ubicación.</t>
   </si>
 </sst>
 </file>
@@ -2035,6 +2038,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2066,9 +2072,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2729,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2818,10 +2821,10 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
@@ -2873,10 +2876,10 @@
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
@@ -2927,12 +2930,12 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="45"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -2976,7 +2979,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>3</v>
+      </c>
+      <c r="B32" s="14">
+        <v>44056</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A16:B16"/>
@@ -5913,7 +5929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D351A-E2DF-428B-A1AA-FF4AC66A8E66}">
   <dimension ref="A3:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+    <sheetView topLeftCell="B76" workbookViewId="0">
       <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
@@ -5943,40 +5959,40 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="40" t="s">
         <v>479</v>
       </c>
@@ -6030,7 +6046,7 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="44" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6066,40 +6082,40 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="49" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="40" t="s">
         <v>479</v>
       </c>
@@ -6151,7 +6167,7 @@
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="44" t="s">
         <v>480</v>
       </c>
       <c r="F26" s="42"/>
@@ -6189,40 +6205,40 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="49" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="40" t="s">
         <v>479</v>
       </c>
@@ -6312,40 +6328,40 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="49" t="s">
+      <c r="B41" s="55"/>
+      <c r="C41" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="40" t="s">
         <v>479</v>
       </c>
@@ -6435,40 +6451,40 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="49" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="40" t="s">
         <v>479</v>
       </c>
@@ -6558,40 +6574,40 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="49" t="s">
+      <c r="B61" s="55"/>
+      <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G61" s="49" t="s">
+      <c r="G61" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B63" s="48"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="40" t="s">
         <v>479</v>
       </c>
@@ -6681,40 +6697,40 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="49" t="s">
+      <c r="B71" s="55"/>
+      <c r="C71" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F71" s="49" t="s">
+      <c r="F71" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G71" s="49" t="s">
+      <c r="G71" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
     </row>
     <row r="73" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B73" s="48"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="40" t="s">
         <v>479</v>
       </c>
@@ -6804,40 +6820,40 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B81" s="54"/>
-      <c r="C81" s="49" t="s">
+      <c r="B81" s="55"/>
+      <c r="C81" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E81" s="49" t="s">
+      <c r="E81" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="F81" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G81" s="49" t="s">
+      <c r="G81" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
     </row>
     <row r="83" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B83" s="48"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="40" t="s">
         <v>479</v>
       </c>
@@ -6927,40 +6943,40 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B91" s="54"/>
-      <c r="C91" s="49" t="s">
+      <c r="B91" s="55"/>
+      <c r="C91" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E91" s="49" t="s">
+      <c r="E91" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F91" s="49" t="s">
+      <c r="F91" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G91" s="49" t="s">
+      <c r="G91" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
     </row>
     <row r="93" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="48"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="40" t="s">
         <v>479</v>
       </c>
@@ -7013,7 +7029,7 @@
       <c r="C96" s="42"/>
       <c r="D96" s="42"/>
       <c r="E96" s="42"/>
-      <c r="F96" s="55" t="s">
+      <c r="F96" s="44" t="s">
         <v>481</v>
       </c>
       <c r="G96" s="42"/>
@@ -7050,40 +7066,40 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B101" s="54"/>
-      <c r="C101" s="49" t="s">
+      <c r="B101" s="55"/>
+      <c r="C101" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E101" s="49" t="s">
+      <c r="E101" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F101" s="49" t="s">
+      <c r="F101" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G101" s="49" t="s">
+      <c r="G101" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
     </row>
     <row r="103" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B103" s="48"/>
+      <c r="B103" s="49"/>
       <c r="C103" s="40" t="s">
         <v>479</v>
       </c>
@@ -7137,7 +7153,7 @@
       <c r="D106" s="42"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
-      <c r="G106" s="55" t="s">
+      <c r="G106" s="44" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7173,40 +7189,40 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="49" t="s">
+      <c r="B111" s="55"/>
+      <c r="C111" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D111" s="49" t="s">
+      <c r="D111" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E111" s="49" t="s">
+      <c r="E111" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F111" s="49" t="s">
+      <c r="F111" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G111" s="49" t="s">
+      <c r="G111" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
     </row>
     <row r="113" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B113" s="48"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="40" t="s">
         <v>479</v>
       </c>
@@ -7296,40 +7312,40 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="53" t="s">
+      <c r="A121" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B121" s="54"/>
-      <c r="C121" s="49" t="s">
+      <c r="B121" s="55"/>
+      <c r="C121" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D121" s="49" t="s">
+      <c r="D121" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E121" s="49" t="s">
+      <c r="E121" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F121" s="49" t="s">
+      <c r="F121" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G121" s="49" t="s">
+      <c r="G121" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="50"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
     </row>
     <row r="123" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="47" t="s">
+      <c r="A123" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B123" s="48"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="40" t="s">
         <v>479</v>
       </c>
@@ -7381,7 +7397,7 @@
       </c>
       <c r="C126" s="42"/>
       <c r="D126" s="42"/>
-      <c r="E126" s="55" t="s">
+      <c r="E126" s="44" t="s">
         <v>480</v>
       </c>
       <c r="F126" s="42"/>
@@ -7419,40 +7435,40 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="53" t="s">
+      <c r="A131" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B131" s="54"/>
-      <c r="C131" s="49" t="s">
+      <c r="B131" s="55"/>
+      <c r="C131" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D131" s="49" t="s">
+      <c r="D131" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E131" s="49" t="s">
+      <c r="E131" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F131" s="49" t="s">
+      <c r="F131" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G131" s="49" t="s">
+      <c r="G131" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="51"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="51"/>
     </row>
     <row r="133" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="47" t="s">
+      <c r="A133" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B133" s="48"/>
+      <c r="B133" s="49"/>
       <c r="C133" s="40" t="s">
         <v>479</v>
       </c>
@@ -7542,40 +7558,40 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="53" t="s">
+      <c r="A141" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B141" s="54"/>
-      <c r="C141" s="49" t="s">
+      <c r="B141" s="55"/>
+      <c r="C141" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D141" s="49" t="s">
+      <c r="D141" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E141" s="49" t="s">
+      <c r="E141" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F141" s="49" t="s">
+      <c r="F141" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G141" s="49" t="s">
+      <c r="G141" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
-      <c r="B142" s="52"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="51"/>
     </row>
     <row r="143" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="47" t="s">
+      <c r="A143" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B143" s="48"/>
+      <c r="B143" s="49"/>
       <c r="C143" s="40" t="s">
         <v>479</v>
       </c>
@@ -7665,40 +7681,40 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="53" t="s">
+      <c r="A151" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B151" s="54"/>
-      <c r="C151" s="49" t="s">
+      <c r="B151" s="55"/>
+      <c r="C151" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D151" s="49" t="s">
+      <c r="D151" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E151" s="49" t="s">
+      <c r="E151" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F151" s="49" t="s">
+      <c r="F151" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G151" s="49" t="s">
+      <c r="G151" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="50"/>
-      <c r="G152" s="50"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="51"/>
     </row>
     <row r="153" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B153" s="48"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="40" t="s">
         <v>479</v>
       </c>
@@ -7788,40 +7804,40 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="53" t="s">
+      <c r="A161" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B161" s="54"/>
-      <c r="C161" s="49" t="s">
+      <c r="B161" s="55"/>
+      <c r="C161" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D161" s="49" t="s">
+      <c r="D161" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E161" s="49" t="s">
+      <c r="E161" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F161" s="49" t="s">
+      <c r="F161" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G161" s="49" t="s">
+      <c r="G161" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="50"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="50"/>
-      <c r="G162" s="50"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
+      <c r="E162" s="51"/>
+      <c r="F162" s="51"/>
+      <c r="G162" s="51"/>
     </row>
     <row r="163" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="47" t="s">
+      <c r="A163" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B163" s="48"/>
+      <c r="B163" s="49"/>
       <c r="C163" s="40" t="s">
         <v>479</v>
       </c>
@@ -7911,40 +7927,40 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="53" t="s">
+      <c r="A171" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B171" s="54"/>
-      <c r="C171" s="49" t="s">
+      <c r="B171" s="55"/>
+      <c r="C171" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D171" s="49" t="s">
+      <c r="D171" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E171" s="49" t="s">
+      <c r="E171" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F171" s="49" t="s">
+      <c r="F171" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G171" s="49" t="s">
+      <c r="G171" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="51"/>
-      <c r="B172" s="52"/>
-      <c r="C172" s="50"/>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
+      <c r="A172" s="52"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="51"/>
+      <c r="D172" s="51"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
     </row>
     <row r="173" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="47" t="s">
+      <c r="A173" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B173" s="48"/>
+      <c r="B173" s="49"/>
       <c r="C173" s="40" t="s">
         <v>479</v>
       </c>
@@ -8034,40 +8050,40 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="53" t="s">
+      <c r="A181" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B181" s="54"/>
-      <c r="C181" s="49" t="s">
+      <c r="B181" s="55"/>
+      <c r="C181" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D181" s="49" t="s">
+      <c r="D181" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E181" s="49" t="s">
+      <c r="E181" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F181" s="49" t="s">
+      <c r="F181" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G181" s="49" t="s">
+      <c r="G181" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="50"/>
-      <c r="D182" s="50"/>
-      <c r="E182" s="50"/>
-      <c r="F182" s="50"/>
-      <c r="G182" s="50"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="51"/>
+      <c r="D182" s="51"/>
+      <c r="E182" s="51"/>
+      <c r="F182" s="51"/>
+      <c r="G182" s="51"/>
     </row>
     <row r="183" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="47" t="s">
+      <c r="A183" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B183" s="48"/>
+      <c r="B183" s="49"/>
       <c r="C183" s="40" t="s">
         <v>479</v>
       </c>
@@ -8157,40 +8173,40 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="53" t="s">
+      <c r="A191" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B191" s="54"/>
-      <c r="C191" s="49" t="s">
+      <c r="B191" s="55"/>
+      <c r="C191" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D191" s="49" t="s">
+      <c r="D191" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E191" s="49" t="s">
+      <c r="E191" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F191" s="49" t="s">
+      <c r="F191" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G191" s="49" t="s">
+      <c r="G191" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="51"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="50"/>
-      <c r="D192" s="50"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="50"/>
-      <c r="G192" s="50"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="51"/>
+      <c r="D192" s="51"/>
+      <c r="E192" s="51"/>
+      <c r="F192" s="51"/>
+      <c r="G192" s="51"/>
     </row>
     <row r="193" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="47" t="s">
+      <c r="A193" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B193" s="48"/>
+      <c r="B193" s="49"/>
       <c r="C193" s="40" t="s">
         <v>479</v>
       </c>
@@ -8280,40 +8296,40 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="53" t="s">
+      <c r="A201" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="B201" s="54"/>
-      <c r="C201" s="49" t="s">
+      <c r="B201" s="55"/>
+      <c r="C201" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="D201" s="49" t="s">
+      <c r="D201" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E201" s="49" t="s">
+      <c r="E201" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="F201" s="49" t="s">
+      <c r="F201" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="G201" s="49" t="s">
+      <c r="G201" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="51"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="50"/>
-      <c r="D202" s="50"/>
-      <c r="E202" s="50"/>
-      <c r="F202" s="50"/>
-      <c r="G202" s="50"/>
+      <c r="A202" s="52"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="51"/>
+      <c r="D202" s="51"/>
+      <c r="E202" s="51"/>
+      <c r="F202" s="51"/>
+      <c r="G202" s="51"/>
     </row>
     <row r="203" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="47" t="s">
+      <c r="A203" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B203" s="48"/>
+      <c r="B203" s="49"/>
       <c r="C203" s="40" t="s">
         <v>479</v>
       </c>
@@ -8399,22 +8415,130 @@
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:C52"/>
@@ -8435,130 +8559,22 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
